--- a/biology/Biochimie/Germaine_Benoit/Germaine_Benoit.xlsx
+++ b/biology/Biochimie/Germaine_Benoit/Germaine_Benoit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Germaine Benoit est une ingénieure chimiste, pharmacologue et biologiste française, née en 1901 et morte en 1983[2], surtout connue pour ses contributions à l'étude des substances sympathicomimétiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germaine Benoit est une ingénieure chimiste, pharmacologue et biologiste française, née en 1901 et morte en 1983, surtout connue pour ses contributions à l'étude des substances sympathicomimétiques.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Notice biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Germaine Benoit est née le 9 octobre 1901 à Paris. Fille unique, elle perd son père, professeur d'allemand, qui disparaît pendant la Première Guerre mondiale[1].
-En 1918 et 1919, elle obtient ses deux baccalauréats et, l'année suivante, le certificat de physique, chimie et sciences naturelles (PCN), préparatoire aux études de médecine. Elle s'inscrit alors à l'Institut de chimie appliquée, future École nationale supérieure de chimie, dont elle suit les cours pendant trois ans. Diplômée en ingénierie chimique en 1923, elle passe, entre 1922 et 1936, cinq licences scientifiques, en chimie et en biologie[1].
-Le 1er juin 1924, Germaine Benoit entre à l'Institut Pasteur comme assistante au laboratoire de chimie thérapeutique dirigé par Ernest Fourneau. Dix ans plus tard, en 1934, elle reçoit le prix Louis, de l'Académie de médecine, pour ses recherches sur les médicaments sympathicotropes[3],[4]. Entre-temps, elle a participé aux premières grandes avancées de la lutte contre la maladie du sommeil et le paludisme par ses importantes contributions d'ingénierie chimique à la découverte et à la mise au point de médicaments tels que l'orsanine[5] et la rhodoquine[6],[7].
-Elle soutient une thèse de doctorat en sciences physiques en 1942 sur des composés  de l'hydrazine[8] et, toujours dans le service de chimie thérapeutique, elle est nommée chef de laboratoire en 1943. En 1947, elle est faite chevalier de la Légion d'honneur[1].
-En 1960, Germaine Benoit est appelée par Daniel Bovet à travailler à l'Institut supérieur de la santé (it) de Rome. L'année suivante, elle épouse Albert Funke, également chef de laboratoire au service de chimie thérapeutique de l'Institut Pasteur, avec lequel elle collabore depuis des années[9],[10],[11]. Elle prend sa retraite en 1962, à son retour d'Italie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germaine Benoit est née le 9 octobre 1901 à Paris. Fille unique, elle perd son père, professeur d'allemand, qui disparaît pendant la Première Guerre mondiale.
+En 1918 et 1919, elle obtient ses deux baccalauréats et, l'année suivante, le certificat de physique, chimie et sciences naturelles (PCN), préparatoire aux études de médecine. Elle s'inscrit alors à l'Institut de chimie appliquée, future École nationale supérieure de chimie, dont elle suit les cours pendant trois ans. Diplômée en ingénierie chimique en 1923, elle passe, entre 1922 et 1936, cinq licences scientifiques, en chimie et en biologie.
+Le 1er juin 1924, Germaine Benoit entre à l'Institut Pasteur comme assistante au laboratoire de chimie thérapeutique dirigé par Ernest Fourneau. Dix ans plus tard, en 1934, elle reçoit le prix Louis, de l'Académie de médecine, pour ses recherches sur les médicaments sympathicotropes,. Entre-temps, elle a participé aux premières grandes avancées de la lutte contre la maladie du sommeil et le paludisme par ses importantes contributions d'ingénierie chimique à la découverte et à la mise au point de médicaments tels que l'orsanine et la rhodoquine,.
+Elle soutient une thèse de doctorat en sciences physiques en 1942 sur des composés  de l'hydrazine et, toujours dans le service de chimie thérapeutique, elle est nommée chef de laboratoire en 1943. En 1947, elle est faite chevalier de la Légion d'honneur.
+En 1960, Germaine Benoit est appelée par Daniel Bovet à travailler à l'Institut supérieur de la santé (it) de Rome. L'année suivante, elle épouse Albert Funke, également chef de laboratoire au service de chimie thérapeutique de l'Institut Pasteur, avec lequel elle collabore depuis des années. Elle prend sa retraite en 1962, à son retour d'Italie.
 Germaine Benoit est morte à Joinville-le-Pont le 17 février 1983.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalière de la Légion d'honneur (1947).</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1927 : « Sur les isomères de l'acide para-oxy-3-amino-phényl-arsinique et de son dérivé acétylé (stovarsol) », Bulletin de la Société chimique de France, 4e série, vol. 41,‎ 1927, p. 499-514, avec Ernest Fourneau et Jacques et Thérèse Tréfouël.
 1930 : « Contribution à l'étude des anesthésiques locaux : Dérivés des amino-alcools à fonction alcoolique primaire », Bull. Soc. chim. Fr., 4e série, vol. 47,‎ 1930, p. 858-885, avec E. Fourneau et Roger Firmenich.
@@ -634,7 +652,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Service des archives de l'Institut Pasteur, « Repères chronologiques : Germaine Benoit (1901-1983) », Institut Pasteur (consulté le 3 juillet 2018).</t>
         </is>
@@ -664,9 +684,11 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Portrait photographique de Germaine Benoit par Henri Manuel (vers 1925)[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Portrait photographique de Germaine Benoit par Henri Manuel (vers 1925).</t>
         </is>
       </c>
     </row>
